--- a/biology/Botanique/Agrostis_sandwicensis/Agrostis_sandwicensis.xlsx
+++ b/biology/Botanique/Agrostis_sandwicensis/Agrostis_sandwicensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrostis sandwicensis est une espèce de plantes monocotylédones de la famille des Poaceae (graminées), originaires d'Océanie.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrostis sandwicensis est une plante herbacée vivace, cespiteuse, formant des touffes denses agglomérées.
 Les tiges dressées ont de 30 à 50 cm de long. La ligule est une membrane non ciliée de 3 mm de haut.
-Les feuilles ont un limbe involuté de 1 à 2 mm de large[1].
+Les feuilles ont un limbe involuté de 1 à 2 mm de large.
 L'inflorescence est une panicule spiciforme, linéaire, longue de 5 à 10 cm, portant des épillets solitaires pédicellés.
 Ceux-ci, de forme elliptique, comprimés latéralement, longs de 3 à 4 mm, comptent un seul fleuron fertile, et se désarticulent à maturité.
-Les glumes, égales et plus longues que les fleurons, sont persistantes[1].
+Les glumes, égales et plus longues que les fleurons, sont persistantes.
 </t>
         </is>
       </c>
@@ -547,9 +561,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (18 juillet 2016)[2] : 	
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (18 juillet 2016) : 	
 Agrostis fallax Hildebr.,
 Agrostis rockii Hack.</t>
         </is>
